--- a/251120_CompHuman-SpatialJCI/Output_JCI/Intervention_Response/Intervention_Response_Analysis.xlsx
+++ b/251120_CompHuman-SpatialJCI/Output_JCI/Intervention_Response/Intervention_Response_Analysis.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve">cell_type</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t xml:space="preserve">majorSC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aggSC</t>
   </si>
   <si>
     <t xml:space="preserve">n_EX_total</t>
@@ -459,34 +462,34 @@
         <v>13</v>
       </c>
       <c r="C2" t="n">
-        <v>90</v>
+        <v>529</v>
       </c>
       <c r="D2" t="n">
-        <v>47</v>
+        <v>770</v>
       </c>
       <c r="E2" t="n">
-        <v>186</v>
+        <v>1337</v>
       </c>
       <c r="F2" t="n">
-        <v>68</v>
+        <v>327</v>
       </c>
       <c r="G2" t="n">
-        <v>21</v>
+        <v>243</v>
       </c>
       <c r="H2" t="n">
-        <v>144</v>
+        <v>738</v>
       </c>
       <c r="I2" t="n">
-        <v>4</v>
+        <v>105</v>
       </c>
       <c r="J2" t="n">
-        <v>20</v>
+        <v>177</v>
       </c>
       <c r="K2" t="n">
-        <v>24</v>
+        <v>502</v>
       </c>
       <c r="L2" t="n">
-        <v>2</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
@@ -497,34 +500,34 @@
         <v>14</v>
       </c>
       <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>16</v>
+      </c>
+      <c r="E3" t="n">
+        <v>18</v>
+      </c>
+      <c r="F3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G3" t="n">
+        <v>6</v>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+      <c r="I3" t="n">
         <v>2</v>
       </c>
-      <c r="D3" t="n">
-        <v>3</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="J3" t="n">
         <v>5</v>
       </c>
-      <c r="F3" t="n">
+      <c r="K3" t="n">
+        <v>10</v>
+      </c>
+      <c r="L3" t="n">
         <v>2</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2</v>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -538,28 +541,28 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
+        <v>6</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
         <v>2</v>
-      </c>
-      <c r="E4" t="n">
-        <v>2</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -573,66 +576,66 @@
         <v>13</v>
       </c>
       <c r="C5" t="n">
-        <v>19</v>
+        <v>238</v>
       </c>
       <c r="D5" t="n">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="E5" t="n">
+        <v>242</v>
+      </c>
+      <c r="F5" t="n">
+        <v>189</v>
+      </c>
+      <c r="G5" t="n">
+        <v>32</v>
+      </c>
+      <c r="H5" t="n">
+        <v>200</v>
+      </c>
+      <c r="I5" t="n">
+        <v>22</v>
+      </c>
+      <c r="J5" t="n">
+        <v>30</v>
+      </c>
+      <c r="K5" t="n">
+        <v>15</v>
+      </c>
+      <c r="L5" t="n">
         <v>3</v>
-      </c>
-      <c r="F5" t="n">
-        <v>18</v>
-      </c>
-      <c r="G5" t="n">
-        <v>4</v>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -643,89 +646,89 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C7" t="n">
-        <v>164</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>537</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>119</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>466</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>444</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>114</v>
       </c>
       <c r="E8" t="n">
-        <v>13</v>
+        <v>240</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>375</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="H8" t="n">
-        <v>11</v>
+        <v>185</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -734,7 +737,7 @@
         <v>4</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -743,15 +746,281 @@
         <v>3</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
         <v>1</v>
       </c>
       <c r="L9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1023</v>
+      </c>
+      <c r="D11" t="n">
+        <v>825</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2371</v>
+      </c>
+      <c r="F11" t="n">
+        <v>561</v>
+      </c>
+      <c r="G11" t="n">
+        <v>157</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1437</v>
+      </c>
+      <c r="I11" t="n">
+        <v>156</v>
+      </c>
+      <c r="J11" t="n">
+        <v>422</v>
+      </c>
+      <c r="K11" t="n">
+        <v>628</v>
+      </c>
+      <c r="L11" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="n">
+        <v>16</v>
+      </c>
+      <c r="D12" t="n">
+        <v>17</v>
+      </c>
+      <c r="E12" t="n">
+        <v>37</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>15</v>
+      </c>
+      <c r="I12" t="n">
+        <v>4</v>
+      </c>
+      <c r="J12" t="n">
+        <v>10</v>
+      </c>
+      <c r="K12" t="n">
+        <v>15</v>
+      </c>
+      <c r="L12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="n">
+        <v>4</v>
+      </c>
+      <c r="D13" t="n">
+        <v>5</v>
+      </c>
+      <c r="E13" t="n">
+        <v>11</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3</v>
+      </c>
+      <c r="K13" t="n">
+        <v>4</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1006</v>
+      </c>
+      <c r="D14" t="n">
+        <v>919</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1600</v>
+      </c>
+      <c r="F14" t="n">
+        <v>563</v>
+      </c>
+      <c r="G14" t="n">
+        <v>277</v>
+      </c>
+      <c r="H14" t="n">
+        <v>820</v>
+      </c>
+      <c r="I14" t="n">
+        <v>234</v>
+      </c>
+      <c r="J14" t="n">
+        <v>372</v>
+      </c>
+      <c r="K14" t="n">
+        <v>571</v>
+      </c>
+      <c r="L14" t="n">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="n">
+        <v>21</v>
+      </c>
+      <c r="D15" t="n">
+        <v>19</v>
+      </c>
+      <c r="E15" t="n">
+        <v>20</v>
+      </c>
+      <c r="F15" t="n">
+        <v>10</v>
+      </c>
+      <c r="G15" t="n">
+        <v>6</v>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+      <c r="I15" t="n">
+        <v>7</v>
+      </c>
+      <c r="J15" t="n">
+        <v>9</v>
+      </c>
+      <c r="K15" t="n">
+        <v>11</v>
+      </c>
+      <c r="L15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>6</v>
+      </c>
+      <c r="E16" t="n">
+        <v>3</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>3</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2</v>
+      </c>
+      <c r="L16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -777,16 +1046,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2">
@@ -797,16 +1066,16 @@
         <v>13</v>
       </c>
       <c r="C2" t="n">
-        <v>186</v>
+        <v>1337</v>
       </c>
       <c r="D2" t="n">
-        <v>162</v>
+        <v>835</v>
       </c>
       <c r="E2" t="n">
-        <v>24</v>
+        <v>502</v>
       </c>
       <c r="F2" t="n">
-        <v>68</v>
+        <v>327</v>
       </c>
     </row>
     <row r="3">
@@ -817,16 +1086,16 @@
         <v>14</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -837,13 +1106,13 @@
         <v>15</v>
       </c>
       <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
         <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -857,95 +1126,215 @@
         <v>13</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>242</v>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
+        <v>227</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F5" t="n">
-        <v>18</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
       <c r="C7" t="n">
-        <v>537</v>
+        <v>240</v>
       </c>
       <c r="D7" t="n">
-        <v>504</v>
+        <v>221</v>
       </c>
       <c r="E7" t="n">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F7" t="n">
-        <v>119</v>
+        <v>375</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
       </c>
       <c r="C8" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
       <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2371</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1743</v>
+      </c>
+      <c r="E10" t="n">
+        <v>628</v>
+      </c>
+      <c r="F10" t="n">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="n">
+        <v>37</v>
+      </c>
+      <c r="D11" t="n">
+        <v>22</v>
+      </c>
+      <c r="E11" t="n">
+        <v>15</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="n">
+        <v>11</v>
+      </c>
+      <c r="D12" t="n">
+        <v>7</v>
+      </c>
+      <c r="E12" t="n">
         <v>4</v>
       </c>
-      <c r="D9" t="n">
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1600</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1029</v>
+      </c>
+      <c r="E13" t="n">
+        <v>571</v>
+      </c>
+      <c r="F13" t="n">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="n">
+        <v>20</v>
+      </c>
+      <c r="D14" t="n">
+        <v>9</v>
+      </c>
+      <c r="E14" t="n">
+        <v>11</v>
+      </c>
+      <c r="F14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="n">
         <v>3</v>
       </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2</v>
+      </c>
+      <c r="F15" t="n">
         <v>0</v>
       </c>
     </row>
